--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -88,10 +88,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +389,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,7 +425,7 @@
       <c r="C5" s="1">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5">
@@ -440,7 +440,7 @@
       <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -453,7 +453,7 @@
       <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="F7">
         <v>3</v>
       </c>
@@ -466,7 +466,7 @@
       <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1">
@@ -476,7 +476,7 @@
       <c r="C9" s="1">
         <v>19</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="F9">
         <v>3</v>
       </c>
@@ -489,7 +489,7 @@
       <c r="C10">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1">
@@ -498,19 +498,19 @@
       <c r="C11" s="1">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>28</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>30</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1">
@@ -520,7 +520,7 @@
       <c r="C13" s="1">
         <v>34</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="F13">
         <v>4</v>
       </c>
@@ -533,7 +533,7 @@
       <c r="C14">
         <v>39</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1">
@@ -543,7 +543,7 @@
       <c r="C15" s="1">
         <v>44</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="F15">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="C16">
         <v>48</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1">
@@ -566,7 +566,7 @@
       <c r="C17" s="1">
         <v>55</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F17">
@@ -581,7 +581,7 @@
       <c r="C18">
         <v>59</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1">
@@ -591,7 +591,7 @@
       <c r="C19" s="1">
         <v>63</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="F19">
         <v>4</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="C20">
         <v>65</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="1">
@@ -614,7 +614,7 @@
       <c r="C21" s="1">
         <v>67</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="F21">
         <v>2</v>
       </c>
@@ -624,10 +624,10 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>78</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1">
@@ -637,7 +637,7 @@
       <c r="C23" s="1">
         <v>81</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F23">
@@ -649,10 +649,10 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>83</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1">
@@ -662,7 +662,7 @@
       <c r="C25" s="1">
         <v>86</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4"/>
       <c r="F25">
         <v>3</v>
       </c>
@@ -672,17 +672,17 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>88</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>89</v>
       </c>
       <c r="D27" t="s">
@@ -694,7 +694,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>99</v>
       </c>
       <c r="D28" t="s">

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,30 +612,30 @@
         <v>66</v>
       </c>
       <c r="C21" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>3</v>
@@ -647,17 +647,17 @@
     <row r="24" spans="2:6">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1">
         <v>86</v>
@@ -673,17 +673,17 @@
         <v>87</v>
       </c>
       <c r="C26" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -692,10 +692,10 @@
     <row r="28" spans="2:6">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -707,7 +707,7 @@
     <row r="29" spans="2:6">
       <c r="F29">
         <f>SUM(F3:F28)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,19 +423,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2">
         <f>C5+1</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -707,7 +707,7 @@
     <row r="29" spans="2:6">
       <c r="F29">
         <f>SUM(F3:F28)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>увод</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>източници</t>
+  </si>
+  <si>
+    <t>дописване</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,6 +470,9 @@
         <v>16</v>
       </c>
       <c r="D8" s="4"/>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1">

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>увод</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>дописване</t>
+  </si>
+  <si>
+    <t>8стр- - изкочници</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>1</v>
       </c>
@@ -408,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4">
         <f>C3+1</f>
         <v>5</v>
@@ -420,7 +423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <f>C4+1</f>
         <v>7</v>
@@ -434,8 +437,11 @@
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <f>C5+1</f>
         <v>12</v>
@@ -448,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <f t="shared" ref="B7:B28" si="0">C6+1</f>
         <v>13</v>
@@ -461,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -474,30 +480,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>24</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <v>25</v>
       </c>
@@ -509,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12" s="3">
         <v>28</v>
       </c>
@@ -518,7 +524,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -531,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:7">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -541,7 +547,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -554,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:7">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -713,7 +719,7 @@
     <row r="29" spans="2:6">
       <c r="F29">
         <f>SUM(F3:F28)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>увод</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>8стр- - изкочници</t>
+  </si>
+  <si>
+    <t>1,2,5 ??1,3,2</t>
+  </si>
+  <si>
+    <t>1,2,4???1,4</t>
   </si>
 </sst>
 </file>
@@ -392,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G29"/>
+  <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:9">
       <c r="B3">
         <v>1</v>
       </c>
@@ -411,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:9">
       <c r="B4">
         <f>C3+1</f>
         <v>5</v>
@@ -423,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <f>C4+1</f>
         <v>7</v>
@@ -441,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <f>C5+1</f>
         <v>12</v>
@@ -454,7 +460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <f t="shared" ref="B7:B28" si="0">C6+1</f>
         <v>13</v>
@@ -467,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -480,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -493,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:9">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -502,8 +508,14 @@
         <v>24</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>25</v>
       </c>
@@ -515,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="3">
         <v>28</v>
       </c>
@@ -524,7 +536,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -537,30 +549,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>C14+1</f>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>44</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -719,7 +731,7 @@
     <row r="29" spans="2:6">
       <c r="F29">
         <f>SUM(F3:F28)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,20 +492,20 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4"/>
       <c r="G10" t="s">
@@ -517,29 +517,31 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="1">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4"/>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="3">
-        <v>28</v>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>34</v>
@@ -731,7 +733,7 @@
     <row r="29" spans="2:6">
       <c r="F29">
         <f>SUM(F3:F28)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>увод</t>
   </si>
@@ -49,18 +49,48 @@
   </si>
   <si>
     <t>1,2,4???1,4</t>
+  </si>
+  <si>
+    <t>да проверя източниците</t>
+  </si>
+  <si>
+    <t>да проверя източниците, дописване</t>
+  </si>
+  <si>
+    <t>39, да го погледна</t>
+  </si>
+  <si>
+    <t>52 - леко жълто, 55-източници</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62-дописване, </t>
+  </si>
+  <si>
+    <t>68 - леко пипване</t>
+  </si>
+  <si>
+    <t>Приложение 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -104,6 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:I29"/>
+  <dimension ref="B3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,7 +493,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B28" si="0">C6+1</f>
+        <f t="shared" ref="B7:B32" si="0">C6+1</f>
         <v>13</v>
       </c>
       <c r="C7" s="1">
@@ -537,6 +568,9 @@
         <v>31</v>
       </c>
       <c r="D12" s="4"/>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1">
@@ -544,22 +578,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4"/>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>37</v>
       </c>
       <c r="D14" s="4"/>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1">
@@ -567,182 +604,242 @@
         <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>59</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C19" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>C22+1</f>
+        <v>76</v>
       </c>
       <c r="C23" s="1">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="3">
         <v>82</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1">
+        <f>C24+1</f>
+        <v>83</v>
+      </c>
+      <c r="C25" s="1">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="C24" s="3">
-        <v>84</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C25" s="1">
-        <v>86</v>
-      </c>
-      <c r="D25" s="4"/>
       <c r="F25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7">
       <c r="B26">
         <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C26" s="3">
         <v>87</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C27" s="1">
         <v>90</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27">
+      <c r="D27" s="4"/>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="C27" s="3">
-        <v>91</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" s="3">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C29" s="3">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="C28" s="3">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C30" s="3">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="F29">
-        <f>SUM(F3:F28)</f>
-        <v>65</v>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C31" s="1">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C32" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="5">
+        <f>SUM(F3:F32)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:D16"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D17:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -131,13 +131,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -255,7 +255,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,7 +468,7 @@
       <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F5">
@@ -486,7 +486,7 @@
       <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -499,7 +499,7 @@
       <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="F7">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
       <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="F9">
         <v>6</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="G10" t="s">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
       <c r="C11" s="1">
         <v>28</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="F11">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="C12" s="3">
         <v>31</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="G12" t="s">
         <v>12</v>
       </c>
@@ -580,7 +580,7 @@
       <c r="C13" s="1">
         <v>36</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="F13">
         <v>5</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="C14">
         <v>37</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="G14" t="s">
         <v>11</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="C15" s="1">
         <v>48</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="F15">
         <v>11</v>
       </c>
@@ -622,7 +622,7 @@
       <c r="C16">
         <v>51</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1">
@@ -632,7 +632,7 @@
       <c r="C17" s="1">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F17">
@@ -650,7 +650,7 @@
       <c r="C18">
         <v>59</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1">
@@ -660,7 +660,7 @@
       <c r="C19" s="1">
         <v>61</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="F19">
         <v>2</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="C20">
         <v>62</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="G20" t="s">
         <v>15</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="C21" s="1">
         <v>74</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="F21">
         <v>12</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="C22" s="3">
         <v>75</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1">
@@ -712,7 +712,7 @@
       <c r="C23" s="1">
         <v>76</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="F23">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="C24" s="3">
         <v>82</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1">
@@ -735,7 +735,7 @@
       <c r="C25" s="1">
         <v>85</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25">
@@ -750,7 +750,7 @@
       <c r="C26" s="3">
         <v>87</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1">
@@ -760,7 +760,7 @@
       <c r="C27" s="1">
         <v>90</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="F27">
         <v>3</v>
       </c>
@@ -771,17 +771,17 @@
         <v>91</v>
       </c>
       <c r="C28" s="3">
-        <v>93</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -790,10 +790,10 @@
     <row r="30" spans="2:7">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -805,31 +805,29 @@
     <row r="31" spans="2:7">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="C32" s="3">
-        <v>108</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f>SUM(F3:F32)</f>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -137,7 +138,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -255,7 +256,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +433,7 @@
   <dimension ref="B3:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,9 +814,6 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
@@ -827,7 +825,7 @@
     <row r="33" spans="6:6">
       <c r="F33" s="4">
         <f>SUM(F3:F32)</f>
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>увод</t>
   </si>
@@ -53,9 +52,6 @@
   </si>
   <si>
     <t>да проверя източниците</t>
-  </si>
-  <si>
-    <t>да проверя източниците, дописване</t>
   </si>
   <si>
     <t>39, да го погледна</t>
@@ -433,7 +429,7 @@
   <dimension ref="B3:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,24 +549,24 @@
         <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>31</v>
       </c>
       <c r="D12" s="5"/>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -612,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -640,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -676,7 +672,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -692,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -794,7 +790,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -806,26 +802,26 @@
     <row r="31" spans="2:7">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="4">
         <f>SUM(F3:F32)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>увод</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Библиография</t>
-  </si>
-  <si>
-    <t>източници</t>
   </si>
   <si>
     <t>дописване</t>
@@ -428,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
@@ -472,30 +469,17 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="2">
-        <f>C5+1</f>
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="5"/>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:B32" si="0">C6+1</f>
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="5"/>
       <c r="F7">
         <v>3</v>
@@ -503,20 +487,20 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>C5</f>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B32" si="0">C8+1</f>
         <v>17</v>
       </c>
       <c r="C9" s="1">
@@ -537,10 +521,10 @@
       </c>
       <c r="D10" s="5"/>
       <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -566,7 +550,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -592,7 +576,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -608,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -636,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -672,7 +656,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -688,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -808,7 +792,7 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:7">

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>увод</t>
   </si>
@@ -60,10 +60,10 @@
     <t xml:space="preserve">62-дописване, </t>
   </si>
   <si>
-    <t>68 - леко пипване</t>
-  </si>
-  <si>
     <t>Приложение 1</t>
+  </si>
+  <si>
+    <t>68 - леко пипване, 73 - дописване</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -249,7 +249,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -481,14 +481,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
-      <c r="F7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <f>C5</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
@@ -500,7 +496,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1">
-        <f t="shared" ref="B7:B32" si="0">C8+1</f>
+        <f t="shared" ref="B9:B32" si="0">C8+1</f>
         <v>17</v>
       </c>
       <c r="C9" s="1">
@@ -512,11 +508,11 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>23</v>
       </c>
       <c r="D10" s="5"/>
@@ -591,7 +587,7 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -604,6 +600,9 @@
         <v>51</v>
       </c>
       <c r="D16" s="5"/>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1">
@@ -619,7 +618,7 @@
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -632,6 +631,9 @@
         <v>59</v>
       </c>
       <c r="D18" s="5"/>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1">
@@ -665,33 +667,33 @@
         <v>63</v>
       </c>
       <c r="C21" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21">
         <v>12</v>
       </c>
-      <c r="G21" t="s">
-        <v>14</v>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1">
         <f>C22+1</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23">
@@ -701,20 +703,20 @@
     <row r="24" spans="2:7">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1">
         <f>C24+1</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -726,7 +728,7 @@
     <row r="26" spans="2:7">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3">
         <v>87</v>
@@ -752,17 +754,17 @@
         <v>91</v>
       </c>
       <c r="C28" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -771,10 +773,10 @@
     <row r="30" spans="2:7">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -786,26 +788,26 @@
     <row r="31" spans="2:7">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="4">
         <f>SUM(F3:F32)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -54,16 +54,16 @@
     <t>39, да го погледна</t>
   </si>
   <si>
-    <t>52 - леко жълто, 55-източници</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-дописване, </t>
-  </si>
-  <si>
     <t>Приложение 1</t>
   </si>
   <si>
-    <t>68 - леко пипване, 73 - дописване</t>
+    <t>56-източници</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-дописване, </t>
+  </si>
+  <si>
+    <t>70 - леко пипване, 75 - дописване</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -249,7 +249,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:I33"/>
+  <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>1</v>
       </c>
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:13">
       <c r="B4">
         <f>C3+1</f>
         <v>5</v>
@@ -453,8 +453,15 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>C16-B5</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="1">
         <f>C4+1</f>
         <v>7</v>
@@ -471,18 +478,32 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>C24-B17</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f>C28-B25</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>16</v>
       </c>
@@ -494,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:13">
       <c r="B9" s="1">
         <f t="shared" ref="B9:B32" si="0">C8+1</f>
         <v>17</v>
@@ -507,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:13">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -523,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:13">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -536,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:13">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -549,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -562,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:13">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -575,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:13">
       <c r="B15" s="1">
         <f>C14+1</f>
         <v>38</v>
@@ -591,13 +612,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:13">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5"/>
       <c r="G16" t="s">
@@ -607,10 +628,10 @@
     <row r="17" spans="2:7">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>2</v>
@@ -619,16 +640,16 @@
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5"/>
       <c r="G18" t="s">
@@ -638,40 +659,39 @@
     <row r="19" spans="2:7">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5"/>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -680,20 +700,20 @@
     <row r="22" spans="2:7">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1">
         <f>C22+1</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23">
@@ -703,20 +723,20 @@
     <row r="24" spans="2:7">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1">
         <f>C24+1</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -728,20 +748,20 @@
     <row r="26" spans="2:7">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5"/>
       <c r="F27">
@@ -751,20 +771,20 @@
     <row r="28" spans="2:7">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -773,10 +793,10 @@
     <row r="30" spans="2:7">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -788,26 +808,26 @@
     <row r="31" spans="2:7">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="4">
         <f>SUM(F3:F32)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>увод</t>
   </si>
@@ -48,22 +48,19 @@
     <t>1,2,4???1,4</t>
   </si>
   <si>
-    <t>да проверя източниците</t>
-  </si>
-  <si>
-    <t>39, да го погледна</t>
-  </si>
-  <si>
     <t>Приложение 1</t>
   </si>
   <si>
-    <t>56-източници</t>
-  </si>
-  <si>
     <t xml:space="preserve">64-дописване, </t>
   </si>
   <si>
     <t>70 - леко пипване, 75 - дописване</t>
+  </si>
+  <si>
+    <t>дописване - изводи</t>
+  </si>
+  <si>
+    <t>56-източници - граф в бази данни</t>
   </si>
 </sst>
 </file>
@@ -423,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M33"/>
+  <dimension ref="B3:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f>C16-B5</f>
+        <f>C12-B5</f>
         <v>45</v>
       </c>
     </row>
@@ -482,46 +479,58 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <f>C24-B17</f>
+        <f>C20-B13</f>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
       <c r="D6" s="5"/>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f>C28-B25</f>
-        <v>12</v>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B28" si="0">C6+1</f>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
       <c r="D7" s="5"/>
+      <c r="F7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8">
-        <v>16</v>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1">
-        <f t="shared" ref="B9:B32" si="0">C8+1</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9">
@@ -529,312 +538,254 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C10" s="2">
-        <v>23</v>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
       </c>
       <c r="D12" s="5"/>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="F13">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5"/>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1">
-        <f>C14+1</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C15" s="1">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
-        <v>59</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="F17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="C18" s="3">
+        <v>78</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f>C18+1</f>
+        <v>79</v>
       </c>
       <c r="C19" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
-        <v>64</v>
-      </c>
-      <c r="C20">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C20" s="3">
+        <v>85</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f>C20+1</f>
+        <v>86</v>
       </c>
       <c r="C21" s="1">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F21">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1">
-        <f>C22+1</f>
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
       <c r="C23" s="1">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="1">
-        <f>C24+1</f>
-        <v>86</v>
-      </c>
-      <c r="C25" s="1">
-        <v>88</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="C25" s="3">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3">
-        <v>90</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1">
-        <v>93</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="F27">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="C28" s="3">
-        <v>98</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="C29" s="3">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C30" s="3">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="C31" s="1">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="4">
-        <f>SUM(F3:F32)</f>
-        <v>80</v>
+      <c r="F29" s="4">
+        <f>SUM(F3:F28)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:D16"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D13:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>увод</t>
   </si>
@@ -51,16 +51,13 @@
     <t>Приложение 1</t>
   </si>
   <si>
-    <t xml:space="preserve">64-дописване, </t>
-  </si>
-  <si>
     <t>70 - леко пипване, 75 - дописване</t>
   </si>
   <si>
     <t>дописване - изводи</t>
   </si>
   <si>
-    <t>56-източници - граф в бази данни</t>
+    <t xml:space="preserve">дописване, </t>
   </si>
 </sst>
 </file>
@@ -85,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -117,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -126,9 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -246,7 +250,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +427,7 @@
   <dimension ref="B3:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,7 +459,7 @@
       </c>
       <c r="M4">
         <f>C12-B5</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -569,20 +573,20 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5"/>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>2</v>
@@ -590,17 +594,15 @@
       <c r="F13">
         <v>7</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5"/>
       <c r="G14" t="s">
@@ -610,10 +612,10 @@
     <row r="15" spans="2:13">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15">
@@ -622,49 +624,50 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5"/>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1">
         <f>C18+1</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19">
@@ -674,20 +677,20 @@
     <row r="20" spans="2:7">
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1">
         <f>C20+1</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -699,20 +702,20 @@
     <row r="22" spans="2:7">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23">
@@ -722,20 +725,20 @@
     <row r="24" spans="2:7">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -744,25 +747,25 @@
     <row r="26" spans="2:7">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -771,14 +774,14 @@
     <row r="28" spans="2:7">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:7">
       <c r="F29" s="4">
         <f>SUM(F3:F28)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -126,13 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -250,7 +250,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -446,10 +446,10 @@
     <row r="4" spans="2:13">
       <c r="B4">
         <f>C3+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -459,18 +459,18 @@
       </c>
       <c r="M4">
         <f>C12-B5</f>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="1">
         <f>C4+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F5">
@@ -489,25 +489,26 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6">
-        <v>16</v>
+        <f t="shared" ref="B6:B28" si="0">C5+1</f>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B28" si="0">C6+1</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="F7">
         <v>6</v>
       </c>
@@ -515,12 +516,12 @@
     <row r="8" spans="2:13">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="G8" t="s">
         <v>8</v>
       </c>
@@ -531,12 +532,12 @@
     <row r="9" spans="2:13">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="F9">
         <v>6</v>
       </c>
@@ -544,12 +545,12 @@
     <row r="10" spans="2:13">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
@@ -557,12 +558,12 @@
     <row r="11" spans="2:13">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>49</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="F11">
         <v>19</v>
       </c>
@@ -570,12 +571,12 @@
     <row r="12" spans="2:13">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>53</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="G12" t="s">
         <v>12</v>
       </c>
@@ -588,13 +589,13 @@
       <c r="C13" s="1">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F13">
         <v>7</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14">
@@ -604,7 +605,7 @@
       <c r="C14">
         <v>61</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="G14" t="s">
         <v>6</v>
       </c>
@@ -617,7 +618,7 @@
       <c r="C15" s="1">
         <v>64</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="F15">
         <v>3</v>
       </c>
@@ -630,7 +631,7 @@
       <c r="C16">
         <v>65</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="G16" t="s">
         <v>13</v>
       </c>
@@ -643,7 +644,7 @@
       <c r="C17" s="1">
         <v>78</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="F17">
         <v>13</v>
       </c>
@@ -659,7 +660,7 @@
       <c r="C18" s="3">
         <v>79</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1">
@@ -669,7 +670,7 @@
       <c r="C19" s="1">
         <v>80</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="F19">
         <v>1</v>
       </c>
@@ -682,7 +683,7 @@
       <c r="C20" s="3">
         <v>86</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1">
@@ -692,7 +693,7 @@
       <c r="C21" s="1">
         <v>89</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F21">
@@ -707,7 +708,7 @@
       <c r="C22" s="3">
         <v>91</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1">
@@ -717,7 +718,7 @@
       <c r="C23" s="1">
         <v>94</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6"/>
       <c r="F23">
         <v>3</v>
       </c>
@@ -730,7 +731,7 @@
       <c r="C24" s="3">
         <v>101</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>увод</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">дописване, </t>
+  </si>
+  <si>
+    <t>48 - диаграма</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -250,7 +253,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +430,7 @@
   <dimension ref="B3:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,6 +569,9 @@
       <c r="D11" s="6"/>
       <c r="F11">
         <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:13">

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
     <t xml:space="preserve">дописване, </t>
   </si>
   <si>
-    <t>48 - диаграма</t>
+    <t>47 - източник</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -253,7 +253,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>увод</t>
   </si>
@@ -42,12 +42,6 @@
     <t>8стр- - изкочници</t>
   </si>
   <si>
-    <t>1,2,5 ??1,3,2</t>
-  </si>
-  <si>
-    <t>1,2,4???1,4</t>
-  </si>
-  <si>
     <t>Приложение 1</t>
   </si>
   <si>
@@ -60,14 +54,32 @@
     <t xml:space="preserve">дописване, </t>
   </si>
   <si>
-    <t>47 - източник</t>
+    <t>модел на версионизиран обект</t>
+  </si>
+  <si>
+    <t>модел на среда с йерархично композирани работни пространства</t>
+  </si>
+  <si>
+    <t>правила за управление на ... В средата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">адаптира на метод за проследимост </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да се определи на терминологията </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да се създаде методология </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да се докаже ефективността </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +95,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -123,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -133,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,12 +545,6 @@
         <v>24</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1">
@@ -545,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -557,8 +571,14 @@
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -570,8 +590,12 @@
       <c r="F11">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
+      <c r="G11" s="3"/>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -584,10 +608,16 @@
       </c>
       <c r="D12" s="6"/>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -602,8 +632,14 @@
         <v>7</v>
       </c>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -615,8 +651,14 @@
       <c r="G14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -628,8 +670,14 @@
       <c r="F15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:13">
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -639,7 +687,13 @@
       </c>
       <c r="D16" s="6"/>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -655,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -674,17 +728,17 @@
         <v>80</v>
       </c>
       <c r="C19" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="6"/>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3">
         <v>86</v>
@@ -772,23 +826,19 @@
         <v>115</v>
       </c>
       <c r="C27" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:7">
       <c r="F29" s="4">
         <f>SUM(F3:F28)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,12 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>увод</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Приложение 1</t>
   </si>
   <si>
-    <t>70 - леко пипване, 75 - дописване</t>
-  </si>
-  <si>
     <t>дописване - изводи</t>
   </si>
   <si>
@@ -73,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Да се докаже ефективността </t>
+  </si>
+  <si>
+    <t>??-незная какво има да се оправя</t>
+  </si>
+  <si>
+    <t>71 - леко пипване, 73:номерация на правилата 75 - дописване</t>
   </si>
 </sst>
 </file>
@@ -149,10 +153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M29"/>
+  <dimension ref="B3:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +497,7 @@
       <c r="C5" s="1">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5">
@@ -506,19 +510,19 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <f>C20-B13</f>
-        <v>32</v>
+        <f>C18-B13</f>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6">
-        <f t="shared" ref="B6:B28" si="0">C5+1</f>
+        <f t="shared" ref="B6:B29" si="0">C5+1</f>
         <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -531,7 +535,7 @@
       <c r="C7" s="1">
         <v>23</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="F7">
         <v>6</v>
       </c>
@@ -544,7 +548,10 @@
       <c r="C8" s="2">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1">
@@ -554,12 +561,12 @@
       <c r="C9" s="1">
         <v>30</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="F9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.75">
+    <row r="10" spans="2:13">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -567,18 +574,12 @@
       <c r="C10" s="3">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75">
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -586,17 +587,11 @@
       <c r="C11" s="1">
         <v>50</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="F11">
         <v>19</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12">
@@ -606,245 +601,281 @@
       <c r="C12">
         <v>53</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14">
+        <f>C13+1</f>
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="J12">
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C15" s="1">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16">
+        <f>C15+1</f>
+        <v>78</v>
+      </c>
+      <c r="C16" s="3">
+        <v>78</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="1">
+        <f>C16+1</f>
+        <v>79</v>
+      </c>
+      <c r="C17" s="1">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15.75">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C13" s="1">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="15.75">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C14">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C15" s="1">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>65</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="G16" t="s">
+    </row>
+    <row r="18" spans="2:11" ht="15.75">
+      <c r="B18">
+        <f>C17+1</f>
+        <v>82</v>
+      </c>
+      <c r="C18" s="3">
+        <v>82</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C17" s="1">
-        <v>78</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="C18" s="3">
-        <v>79</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:7">
+    </row>
+    <row r="19" spans="2:11" ht="15.75">
       <c r="B19" s="1">
         <f>C18+1</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1">
-        <v>82</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <f>C19+1</f>
+        <v>85</v>
+      </c>
+      <c r="C20" s="3">
+        <v>89</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="J20">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="C20" s="3">
-        <v>86</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75">
       <c r="B21" s="1">
-        <f>C20+1</f>
-        <v>87</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="C21" s="1">
-        <v>89</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3">
-        <v>91</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:7">
+        <v>95</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1">
-        <v>94</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="F23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75">
       <c r="B24">
         <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C24" s="3">
+        <v>99</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C26" s="3">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C27" s="3">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C28" s="3">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C29" s="1">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="F31" s="4">
+        <f>SUM(F3:F30)</f>
         <v>95</v>
-      </c>
-      <c r="C24" s="3">
-        <v>101</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="C25" s="3">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="C26" s="3">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="C27" s="1">
-        <v>119</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="F29" s="4">
-        <f>SUM(F3:F28)</f>
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D21:D26"/>
     <mergeCell ref="D13:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -453,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,6 +604,10 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
+      <c r="I12">
+        <f>C12-C4</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
@@ -719,6 +722,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="7"/>
+      <c r="H20">
+        <f>C20-C12</f>
+        <v>36</v>
+      </c>
       <c r="J20">
         <v>3</v>
       </c>
@@ -732,13 +739,13 @@
         <v>90</v>
       </c>
       <c r="C21" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -750,7 +757,7 @@
     <row r="22" spans="2:11" ht="15.75">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3">
         <v>95</v>
@@ -820,6 +827,10 @@
         <v>103</v>
       </c>
       <c r="D26" s="7"/>
+      <c r="H26">
+        <f>C26-C20</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27">
@@ -869,7 +880,7 @@
     <row r="31" spans="2:11">
       <c r="F31" s="4">
         <f>SUM(F3:F30)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>увод</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M31"/>
+  <dimension ref="B3:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f>C12-B5</f>
+        <f>C10-B5</f>
         <v>45</v>
       </c>
     </row>
@@ -494,13 +494,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -509,30 +509,29 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <f>C18-B13</f>
+        <f>C16-B11</f>
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6">
-        <f t="shared" ref="B6:B29" si="0">C5+1</f>
-        <v>17</v>
+      <c r="B6" s="2">
+        <v>24</v>
       </c>
       <c r="C6" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" ref="B7:B27" si="0">C6+1</f>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7">
@@ -540,354 +539,328 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24</v>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>31</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" t="s">
-        <v>18</v>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7"/>
       <c r="F9">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C10" s="3">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <f>C10-C4</f>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F11">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>C11+1</f>
+        <v>65</v>
       </c>
       <c r="C12">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <f>C12-C4</f>
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14">
         <f>C13+1</f>
-        <v>65</v>
-      </c>
-      <c r="C14">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="C14" s="3">
+        <v>78</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f>C14+1</f>
+        <v>79</v>
       </c>
       <c r="C15" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D15" s="7"/>
       <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75">
       <c r="B16">
         <f>C15+1</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75">
       <c r="B17" s="1">
         <f>C16+1</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7"/>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18">
         <f>C17+1</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7"/>
+      <c r="H18">
+        <f>C18-C10</f>
+        <v>36</v>
+      </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75">
       <c r="B19" s="1">
-        <f>C18+1</f>
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="C19" s="1">
-        <v>84</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75">
       <c r="B20">
-        <f>C19+1</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="C20" s="3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="H20">
-        <f>C20-C12</f>
-        <v>36</v>
-      </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1">
-        <v>93</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
       <c r="J21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D22" s="7"/>
       <c r="J22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7"/>
       <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>17</v>
+      <c r="H24">
+        <f>C24-C18</f>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C25" s="1">
-        <v>100</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="F25">
-        <v>1</v>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C25" s="3">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3">
-        <v>103</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="H26">
-        <f>C26-C20</f>
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C27" s="3">
-        <v>104</v>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C27" s="1">
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C28" s="3">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
-      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C29" s="1">
-        <v>121</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="F31" s="4">
-        <f>SUM(F3:F30)</f>
-        <v>96</v>
+      <c r="F29" s="4">
+        <f>SUM(F3:F28)</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="D11:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M29"/>
+  <dimension ref="B3:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,9 +508,9 @@
       <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5">
-        <f>C16-B11</f>
-        <v>28</v>
+      <c r="M5" t="e">
+        <f>#REF!-B11</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -527,7 +527,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B27" si="0">C6+1</f>
+        <f t="shared" ref="B7:B25" si="0">C6+1</f>
         <v>25</v>
       </c>
       <c r="C7" s="1">
@@ -644,223 +644,202 @@
         <v>79</v>
       </c>
       <c r="C15" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7"/>
       <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16">
         <f>C15+1</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75">
+      <c r="H16">
+        <f>C16-C10</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="1">
-        <f>C16+1</f>
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="C17" s="1">
-        <v>84</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18">
-        <f>C17+1</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="H18">
-        <f>C18-C10</f>
-        <v>36</v>
-      </c>
-      <c r="J18">
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C19" s="1">
+        <v>97</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C19" s="1">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75">
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" s="3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75">
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7"/>
       <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7"/>
+      <c r="H22">
+        <f>C22-C16</f>
+        <v>14</v>
+      </c>
       <c r="J22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>100</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="F23">
-        <v>1</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C23" s="3">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C24" s="3">
-        <v>103</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="H24">
-        <f>C24-C18</f>
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C25" s="1">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C25" s="3">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C26" s="3">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="26" spans="2:11" ht="15.75">
+      <c r="C26" s="3"/>
+      <c r="J26">
         <v>5</v>
       </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C27" s="1">
-        <v>121</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="F29" s="4">
-        <f>SUM(F3:F28)</f>
-        <v>98</v>
+      <c r="K26" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75">
+      <c r="F27" s="4">
+        <f>SUM(F3:F26)</f>
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75">
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:D10"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D11:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M28"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B25" si="0">C6+1</f>
+        <f t="shared" ref="B7:B23" si="0">C6+1</f>
         <v>25</v>
       </c>
       <c r="C7" s="1">
@@ -696,149 +696,126 @@
         <v>96</v>
       </c>
       <c r="C19" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D19" s="7"/>
       <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75">
+      <c r="B20">
+        <f>C19+1</f>
+        <v>100</v>
+      </c>
+      <c r="C20" s="3">
+        <v>103</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="H20">
+        <f>C20-C16</f>
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C21" s="3">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="3">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="J22">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="C20" s="3">
-        <v>99</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C23" s="1">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75">
+      <c r="C24" s="3"/>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75">
+      <c r="F25" s="4">
+        <f>SUM(F3:F24)</f>
         <v>100</v>
       </c>
-      <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="C22" s="3">
-        <v>103</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="H22">
-        <f>C22-C16</f>
-        <v>14</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75">
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C23" s="3">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C24" s="3">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C25" s="1">
-        <v>121</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
       <c r="J25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75">
-      <c r="C26" s="3"/>
       <c r="J26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15.75">
-      <c r="F27" s="4">
-        <f>SUM(F3:F26)</f>
-        <v>100</v>
-      </c>
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15.75">
-      <c r="J28">
-        <v>7</v>
-      </c>
-      <c r="K28" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:D10"/>
-    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D17:D20"/>
     <mergeCell ref="D11:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>увод</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Да се докаже ефективността </t>
-  </si>
-  <si>
-    <t>??-незная какво има да се оправя</t>
   </si>
   <si>
     <t>71 - леко пипване, 73:номерация на правилата 75 - дописване</t>
@@ -450,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M26"/>
+  <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f>C10-B5</f>
+        <f>C8-B5</f>
         <v>45</v>
       </c>
     </row>
@@ -494,13 +491,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -509,314 +506,242 @@
         <v>2</v>
       </c>
       <c r="M5" t="e">
-        <f>#REF!-B11</f>
+        <f>#REF!-B9</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="2">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24</v>
+      <c r="B6">
+        <f t="shared" ref="B6:B17" si="0">C5+1</f>
+        <v>32</v>
+      </c>
+      <c r="C6" s="3">
+        <v>32</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" t="s">
-        <v>18</v>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B23" si="0">C6+1</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C8" s="3">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <f>C8-C4</f>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>C9+1</f>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7"/>
       <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <f>C10-C4</f>
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
-        <v>64</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12">
-        <f>C11+1</f>
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C12" s="3">
+        <v>89</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="G12" t="s">
-        <v>10</v>
+      <c r="H12">
+        <f>C12-C8</f>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1">
-        <v>77</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>102</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="H14">
+        <f>C14-C12</f>
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="C15" s="3">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14">
-        <f>C13+1</f>
-        <v>78</v>
-      </c>
-      <c r="C14" s="3">
-        <v>78</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="1">
-        <f>C14+1</f>
-        <v>79</v>
-      </c>
-      <c r="C15" s="1">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="F15">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16">
-        <f>C15+1</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="C16" s="3">
-        <v>89</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="H16">
-        <f>C16-C10</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1">
-        <v>94</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C18" s="3">
-        <v>95</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="C19" s="1">
-        <v>99</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="F19">
+      <c r="J17">
         <v>4</v>
       </c>
+      <c r="K17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75">
+      <c r="C18" s="3"/>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75">
+      <c r="F19" s="4">
+        <f>SUM(F3:F18)</f>
+        <v>103</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="2:11" ht="15.75">
-      <c r="B20">
-        <f>C19+1</f>
-        <v>100</v>
-      </c>
-      <c r="C20" s="3">
-        <v>103</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="H20">
-        <f>C20-C16</f>
-        <v>14</v>
-      </c>
       <c r="J20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75">
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C21" s="3">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C22" s="3">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C23" s="1">
-        <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.75">
-      <c r="C24" s="3"/>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75">
-      <c r="F25" s="4">
-        <f>SUM(F3:F24)</f>
-        <v>100</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="15.75">
-      <c r="J26">
-        <v>7</v>
-      </c>
-      <c r="K26" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,19 +619,19 @@
         <v>90</v>
       </c>
       <c r="C13" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3">
         <v>102</v>
@@ -720,7 +720,7 @@
     <row r="19" spans="2:11" ht="15.75">
       <c r="F19" s="4">
         <f>SUM(F3:F18)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J19">
         <v>6</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -450,7 +450,7 @@
   <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,11 +589,11 @@
         <v>66</v>
       </c>
       <c r="C11" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
@@ -602,24 +602,24 @@
     <row r="12" spans="2:13">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7"/>
       <c r="H12">
         <f>C12-C8</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>3</v>
@@ -631,10 +631,10 @@
     <row r="14" spans="2:13" ht="15.75">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7"/>
       <c r="H14">
@@ -651,10 +651,10 @@
     <row r="15" spans="2:13" ht="15.75">
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -669,10 +669,10 @@
     <row r="16" spans="2:13">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -690,10 +690,10 @@
     <row r="17" spans="2:11" ht="15.75">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -720,7 +720,7 @@
     <row r="19" spans="2:11" ht="15.75">
       <c r="F19" s="4">
         <f>SUM(F3:F18)</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J19">
         <v>6</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>увод</t>
   </si>
@@ -39,18 +39,12 @@
     <t>дописване</t>
   </si>
   <si>
-    <t>8стр- - изкочници</t>
-  </si>
-  <si>
     <t>Приложение 1</t>
   </si>
   <si>
     <t>дописване - изводи</t>
   </si>
   <si>
-    <t xml:space="preserve">дописване, </t>
-  </si>
-  <si>
     <t>модел на версионизиран обект</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">Да се докаже ефективността </t>
-  </si>
-  <si>
-    <t>71 - леко пипване, 73:номерация на правилата 75 - дописване</t>
   </si>
 </sst>
 </file>
@@ -155,7 +146,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -273,7 +264,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M20"/>
+  <dimension ref="B3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>1</v>
       </c>
@@ -466,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:11">
       <c r="B4">
         <f>C3+1</f>
         <v>6</v>
@@ -477,67 +468,50 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <f>C8-B5</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="1">
         <f>C4+1</f>
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="e">
-        <f>#REF!-B9</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6">
-        <f t="shared" ref="B6:B17" si="0">C5+1</f>
-        <v>32</v>
+        <f t="shared" ref="B6:B15" si="0">C5+1</f>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:11">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>51</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:11">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -547,201 +521,178 @@
       </c>
       <c r="D8" s="7"/>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <f>C8-C4</f>
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:11">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:11">
       <c r="B10">
-        <f>C9+1</f>
-        <v>65</v>
-      </c>
-      <c r="C10">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C10" s="3">
+        <v>92</v>
       </c>
       <c r="D10" s="7"/>
       <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f>C10-C8</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="C11" s="1">
+        <v>103</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C12" s="3">
+        <v>105</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f>C12-C10</f>
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="C13" s="3">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C11" s="1">
-        <v>88</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="F11">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="C12" s="3">
-        <v>91</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="H12">
-        <f>C12-C8</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="C13" s="1">
-        <v>102</v>
-      </c>
-      <c r="D13" s="7" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="C14" s="3">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.75">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="C14" s="3">
-        <v>104</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="H14">
-        <f>C14-C12</f>
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C15" s="3">
-        <v>105</v>
+    <row r="15" spans="2:11" ht="15.75">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C15" s="1">
+        <v>123</v>
       </c>
       <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="J15">
         <v>4</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="C16" s="3">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="16" spans="2:11" ht="15.75">
+      <c r="C16" s="3"/>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="C17" s="1">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
+    <row r="17" spans="6:11" ht="15.75">
+      <c r="F17" s="4">
+        <f>SUM(F3:F16)</f>
+        <v>109</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75">
-      <c r="C18" s="3"/>
+    <row r="18" spans="6:11" ht="15.75">
       <c r="J18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75">
-      <c r="F19" s="4">
-        <f>SUM(F3:F18)</f>
-        <v>108</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75">
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>увод</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">Да се докаже ефективността </t>
+  </si>
+  <si>
+    <t>страница 75 - дописване</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -264,7 +267,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,23 +537,25 @@
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>35</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7"/>
       <c r="G10" t="s">
@@ -558,16 +563,16 @@
       </c>
       <c r="I10">
         <f>C10-C8</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>3</v>
@@ -579,10 +584,10 @@
     <row r="12" spans="2:11" ht="15.75">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" t="s">
@@ -602,10 +607,10 @@
     <row r="13" spans="2:11" ht="15.75">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -620,10 +625,10 @@
     <row r="14" spans="2:11">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -641,10 +646,10 @@
     <row r="15" spans="2:11" ht="15.75">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -671,7 +676,7 @@
     <row r="17" spans="6:11" ht="15.75">
       <c r="F17" s="4">
         <f>SUM(F3:F16)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J17">
         <v>6</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="B3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,13 +537,13 @@
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
@@ -552,7 +552,7 @@
     <row r="10" spans="2:11">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3">
         <v>93</v>
@@ -676,7 +676,7 @@
     <row r="17" spans="6:11" ht="15.75">
       <c r="F17" s="4">
         <f>SUM(F3:F16)</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J17">
         <v>6</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>увод</t>
   </si>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -147,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K18"/>
+  <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,7 +490,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6">
-        <f t="shared" ref="B6:B15" si="0">C5+1</f>
+        <f t="shared" ref="B6:B14" si="0">C5+1</f>
         <v>31</v>
       </c>
       <c r="C6" s="3">
@@ -537,167 +538,153 @@
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>92</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="J9">
+        <f>C9-C8</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="C10" s="3">
-        <v>93</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f>C10-C8</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="1">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C10" s="1">
         <v>104</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F10">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C11" s="3">
+        <v>106</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f>C11-C9</f>
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3">
-        <v>106</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <f>C12-C10</f>
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="C14" s="3">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75">
-      <c r="B15" s="1">
+    <row r="14" spans="2:11" ht="15.75">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C14" s="1">
         <v>124</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="F15">
+      <c r="F14">
         <v>5</v>
       </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75">
+      <c r="C15" s="3"/>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75">
-      <c r="C16" s="3"/>
+      <c r="F16" s="4">
+        <f>SUM(F3:F15)</f>
+        <v>114</v>
+      </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" ht="15.75">
-      <c r="F17" s="4">
-        <f>SUM(F3:F16)</f>
-        <v>113</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" ht="15.75">
       <c r="J17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" ht="15.75">
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -144,10 +144,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +445,7 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,7 +481,7 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F5">
@@ -496,7 +496,7 @@
       <c r="C6" s="3">
         <v>31</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
@@ -509,7 +509,7 @@
       <c r="C7" s="1">
         <v>51</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="F7">
         <v>20</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="C8">
         <v>53</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="G8" t="s">
         <v>8</v>
       </c>
@@ -540,7 +540,7 @@
       <c r="C9" s="1">
         <v>93</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F9">
@@ -562,7 +562,7 @@
       <c r="C10" s="1">
         <v>104</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F10">
@@ -575,15 +575,15 @@
         <v>105</v>
       </c>
       <c r="C11" s="3">
-        <v>106</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="I11">
         <f>C11-C9</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -595,10 +595,10 @@
     <row r="12" spans="2:11" ht="15.75">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -613,10 +613,10 @@
     <row r="13" spans="2:11">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -634,10 +634,10 @@
     <row r="14" spans="2:11" ht="15.75">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Да се докаже ефективността </t>
   </si>
   <si>
-    <t>страница 75 - дописване</t>
+    <t>страница 75 - дописване, 58 - източник</t>
   </si>
 </sst>
 </file>
@@ -445,10 +445,14 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:11">
       <c r="B3">
@@ -479,22 +483,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6">
         <f t="shared" ref="B6:B14" si="0">C5+1</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="G6" s="2" t="s">
@@ -504,10 +508,10 @@
     <row r="7" spans="2:11">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7">
@@ -518,10 +522,10 @@
     <row r="8" spans="2:11">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8"/>
       <c r="G8" t="s">
@@ -529,16 +533,16 @@
       </c>
       <c r="I8">
         <f>C8-C4</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>2</v>
@@ -557,10 +561,10 @@
     <row r="10" spans="2:11">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>3</v>
@@ -572,10 +576,10 @@
     <row r="11" spans="2:11" ht="15.75">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="8"/>
       <c r="G11" t="s">
@@ -595,10 +599,10 @@
     <row r="12" spans="2:11" ht="15.75">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -613,10 +617,10 @@
     <row r="13" spans="2:11">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -634,10 +638,10 @@
     <row r="14" spans="2:11" ht="15.75">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -664,7 +668,7 @@
     <row r="16" spans="2:11" ht="15.75">
       <c r="F16" s="4">
         <f>SUM(F3:F15)</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J16">
         <v>6</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>увод</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>страница 75 - дописване, 58 - източник</t>
+  </si>
+  <si>
+    <t>Приложение 2</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K17"/>
+  <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,7 +497,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6">
-        <f t="shared" ref="B6:B14" si="0">C5+1</f>
+        <f t="shared" ref="B6:B16" si="0">C5+1</f>
         <v>32</v>
       </c>
       <c r="C6" s="3">
@@ -579,15 +582,15 @@
         <v>106</v>
       </c>
       <c r="C11" s="3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="I11">
-        <f>C11-C9</f>
-        <v>14</v>
+        <f>C13-C9</f>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -597,98 +600,135 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75">
-      <c r="B12">
+      <c r="B12" s="1">
+        <f>C11+1</f>
+        <v>107</v>
+      </c>
+      <c r="C12" s="1">
+        <v>107</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75">
+      <c r="B13" s="3">
+        <f>C12+1</f>
+        <v>108</v>
+      </c>
+      <c r="C13" s="3">
+        <v>109</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75">
+      <c r="B14">
+        <f>C13+1</f>
+        <v>110</v>
+      </c>
+      <c r="C14" s="3">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
         <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="C12" s="3">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C16" s="1">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C13" s="3">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="K16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75">
+      <c r="B17">
+        <f>C16+1</f>
+        <v>128</v>
+      </c>
+      <c r="C17" s="3">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="C14" s="1">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="K17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75">
+      <c r="F18" s="4">
+        <f>SUM(F3:F17)</f>
+        <v>120</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75">
+      <c r="J19">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75">
-      <c r="C15" s="3"/>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75">
-      <c r="F16" s="4">
-        <f>SUM(F3:F15)</f>
-        <v>116</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" ht="15.75">
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>увод</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K19"/>
+  <dimension ref="B3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6">
-        <f t="shared" ref="B6:B16" si="0">C5+1</f>
+        <f t="shared" ref="B6:B17" si="0">C5+1</f>
         <v>32</v>
       </c>
       <c r="C6" s="3">
@@ -524,211 +524,227 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>C7+1</f>
         <v>53</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <f>C8-C4</f>
-        <v>47</v>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>94</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <f>C9-C8</f>
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f>C9-C4</f>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <f>C10-C9</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>105</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75">
-      <c r="B11">
+    <row r="12" spans="2:11" ht="15.75">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>106</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="G11" t="s">
+      <c r="D12" s="8"/>
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="I11">
-        <f>C13-C9</f>
+      <c r="I12">
+        <f>C14-C10</f>
         <v>15</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75">
-      <c r="B12" s="1">
-        <f>C11+1</f>
+    <row r="13" spans="2:11" ht="15.75">
+      <c r="B13" s="1">
+        <f>C12+1</f>
         <v>107</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>107</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="F12">
+      <c r="D13" s="8"/>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75">
-      <c r="B13" s="3">
-        <f>C12+1</f>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75">
+      <c r="B14" s="3">
+        <f>C13+1</f>
         <v>108</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>109</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75">
-      <c r="B14">
-        <f>C13+1</f>
+      <c r="D14" s="8"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75">
+      <c r="B15">
+        <f>C14+1</f>
         <v>110</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>110</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15">
+    <row r="16" spans="2:11">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>122</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15.75">
-      <c r="B16" s="1">
+    <row r="17" spans="2:11" ht="15.75">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>127</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75">
-      <c r="B17">
-        <f>C16+1</f>
+    <row r="18" spans="2:11" ht="15.75">
+      <c r="B18">
+        <f>C17+1</f>
         <v>128</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>130</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75">
-      <c r="F18" s="4">
-        <f>SUM(F3:F17)</f>
-        <v>120</v>
-      </c>
-      <c r="J18">
+    <row r="19" spans="2:11" ht="15.75">
+      <c r="F19" s="4">
+        <f>SUM(F3:F18)</f>
+        <v>121</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75">
-      <c r="J19">
+    <row r="20" spans="2:11" ht="15.75">
+      <c r="J20">
         <v>7</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D11:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K20"/>
+  <dimension ref="B3:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,282 +469,294 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4">
-        <f>C3+1</f>
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1">
-        <f>C4+1</f>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1">
+        <f>C5+1</f>
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6">
-        <f t="shared" ref="B6:B17" si="0">C5+1</f>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <f t="shared" ref="B7:B18" si="0">C6+1</f>
         <v>32</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>32</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="G6" s="2" t="s">
+      <c r="D7" s="8"/>
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="1">
+    <row r="8" spans="2:11">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>52</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="F7">
+      <c r="D8" s="8"/>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8">
-        <f>C7+1</f>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <f>C8+1</f>
         <v>53</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>53</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="G8" s="2" t="s">
+      <c r="D9" s="8"/>
+      <c r="G9" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C9" s="1">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f>C9-C4</f>
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <f>C10-C9</f>
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f>C10-C5</f>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <f>C11-C10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>105</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75">
-      <c r="B12">
+    <row r="13" spans="2:11" ht="15.75">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>106</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="G12" t="s">
+      <c r="D13" s="8"/>
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="I12">
-        <f>C14-C10</f>
+      <c r="I13">
+        <f>C15-C11</f>
         <v>15</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75">
-      <c r="B13" s="1">
-        <f>C12+1</f>
+    <row r="14" spans="2:11" ht="15.75">
+      <c r="B14" s="1">
+        <f>C13+1</f>
         <v>107</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>107</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="F13">
+      <c r="D14" s="8"/>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75">
-      <c r="B14" s="3">
-        <f>C13+1</f>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75">
+      <c r="B15" s="3">
+        <f>C14+1</f>
         <v>108</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>109</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75">
-      <c r="B15">
-        <f>C14+1</f>
+      <c r="D15" s="8"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75">
+      <c r="B16">
+        <f>C15+1</f>
         <v>110</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16">
+    <row r="17" spans="2:11">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>122</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75">
-      <c r="B17" s="1">
+    <row r="18" spans="2:11" ht="15.75">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>127</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75">
-      <c r="B18">
-        <f>C17+1</f>
+    <row r="19" spans="2:11" ht="15.75">
+      <c r="B19">
+        <f>C18+1</f>
         <v>128</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75">
-      <c r="F19" s="4">
-        <f>SUM(F3:F18)</f>
-        <v>121</v>
-      </c>
-      <c r="J19">
+    <row r="20" spans="2:11" ht="15.75">
+      <c r="F20" s="4">
+        <f>SUM(F3:F19)</f>
+        <v>122</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75">
-      <c r="J20">
+    <row r="21" spans="2:11" ht="15.75">
+      <c r="J21">
         <v>7</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D11:D14"/>
+  <mergeCells count="3">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>увод</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K21"/>
+  <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,24 +497,24 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7">
-        <f t="shared" ref="B7:B18" si="0">C6+1</f>
-        <v>32</v>
-      </c>
-      <c r="C7" s="3">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8"/>
+        <f t="shared" ref="B7:B16" si="0">C6+1</f>
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
@@ -522,240 +522,212 @@
     <row r="8" spans="2:11">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
-        <v>52</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>C8-C5</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9">
-        <f>C8+1</f>
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>53</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <f>C9-C8</f>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
-        <v>54</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f>C10-C5</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C11" s="1">
-        <v>94</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <f>C11-C10</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C12" s="1">
-        <v>105</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75">
-      <c r="B13">
+    <row r="11" spans="2:11" ht="15.75">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
+      <c r="C11" s="3">
+        <v>106</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f>C13-C9</f>
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75">
+      <c r="B12" s="1">
+        <f>C11+1</f>
+        <v>107</v>
+      </c>
+      <c r="C12" s="1">
+        <v>107</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75">
+      <c r="B13" s="3">
+        <f>C12+1</f>
+        <v>108</v>
+      </c>
       <c r="C13" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f>C15-C11</f>
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="15.75">
-      <c r="B14" s="1">
+      <c r="B14">
         <f>C13+1</f>
-        <v>107</v>
-      </c>
-      <c r="C14" s="1">
-        <v>107</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75">
-      <c r="B15" s="3">
-        <f>C14+1</f>
-        <v>108</v>
-      </c>
-      <c r="C15" s="3">
-        <v>109</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75">
-      <c r="B16">
-        <f>C15+1</f>
         <v>110</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C14" s="3">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17">
+    <row r="15" spans="2:11">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C15" s="3">
         <v>122</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75">
-      <c r="B18" s="1">
+    <row r="16" spans="2:11" ht="15.75">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C16" s="1">
         <v>127</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="F16">
         <v>5</v>
       </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75">
+      <c r="B17">
+        <f>C16+1</f>
+        <v>128</v>
+      </c>
+      <c r="C17" s="3">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75">
+      <c r="F18" s="4">
+        <f>SUM(F3:F17)</f>
+        <v>123</v>
+      </c>
       <c r="J18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75">
-      <c r="B19">
-        <f>C18+1</f>
-        <v>128</v>
-      </c>
-      <c r="C19" s="3">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
       <c r="J19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75">
-      <c r="F20" s="4">
-        <f>SUM(F3:F19)</f>
-        <v>122</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75">
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D12:D15"/>
+  <mergeCells count="2">
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>увод</t>
   </si>
@@ -66,10 +66,28 @@
     <t xml:space="preserve">Да се докаже ефективността </t>
   </si>
   <si>
-    <t>страница 75 - дописване, 58 - източник</t>
-  </si>
-  <si>
     <t>Приложение 2</t>
+  </si>
+  <si>
+    <t>страница 75 - дописване, 59 - източник</t>
+  </si>
+  <si>
+    <t>Глава 1</t>
+  </si>
+  <si>
+    <t>Глава 2</t>
+  </si>
+  <si>
+    <t>Глава 3</t>
+  </si>
+  <si>
+    <t>Библио</t>
+  </si>
+  <si>
+    <t>прил 1</t>
+  </si>
+  <si>
+    <t>прил 2</t>
   </si>
 </sst>
 </file>
@@ -101,7 +119,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +144,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -151,6 +181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1</v>
@@ -509,10 +541,10 @@
     <row r="7" spans="2:11">
       <c r="B7">
         <f t="shared" ref="B7:B16" si="0">C6+1</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7"/>
       <c r="G7" s="2" t="s">
@@ -522,10 +554,10 @@
     <row r="8" spans="2:11">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8">
@@ -536,13 +568,13 @@
       </c>
       <c r="I8">
         <f>C8-C5</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>94</v>
@@ -554,11 +586,11 @@
         <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <f>C9-C8</f>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -693,7 +725,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -737,12 +769,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="8"/>
+      <c r="C4">
+        <f>D3+1</f>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
+        <f>D4+1</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <f>D5+1</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="8"/>
+      <c r="C7">
+        <f>D6+1</f>
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <f>D7+1</f>
+        <v>61</v>
+      </c>
+      <c r="D8" s="9">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9">
+        <f>D8+1</f>
+        <v>62</v>
+      </c>
+      <c r="D9" s="9">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8"/>
+      <c r="C10">
+        <f>D9+1</f>
+        <v>78</v>
+      </c>
+      <c r="D10" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
+        <f>D10+1</f>
+        <v>79</v>
+      </c>
+      <c r="D11" s="9">
+        <v>101</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11" s="10">
+        <v>83</v>
+      </c>
+      <c r="H11" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="8"/>
+      <c r="C12">
+        <f>D11+1</f>
+        <v>102</v>
+      </c>
+      <c r="D12" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9">
+        <f>D12+1</f>
+        <v>104</v>
+      </c>
+      <c r="D13" s="9">
+        <v>104</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9">
+        <f>D13+1</f>
+        <v>105</v>
+      </c>
+      <c r="D14" s="9">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="8"/>
+      <c r="C15">
+        <f>D14+1</f>
+        <v>111</v>
+      </c>
+      <c r="D15" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9">
+        <f>D15+1</f>
+        <v>112</v>
+      </c>
+      <c r="D16" s="9">
+        <v>116</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="8"/>
+      <c r="C17">
+        <f>D16+1</f>
+        <v>117</v>
+      </c>
+      <c r="D17" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
+        <f>D17+1</f>
+        <v>118</v>
+      </c>
+      <c r="D18" s="9">
+        <v>118</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="8"/>
+      <c r="C19">
+        <f>D18+1</f>
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9">
+        <f>D19+1</f>
+        <v>120</v>
+      </c>
+      <c r="D20" s="9">
+        <v>121</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="8"/>
+      <c r="C21">
+        <f>D20+1</f>
+        <v>122</v>
+      </c>
+      <c r="D21" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>D21+1</f>
+        <v>124</v>
+      </c>
+      <c r="D22" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <f>D22+1</f>
+        <v>125</v>
+      </c>
+      <c r="D23" s="9">
+        <v>138</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9">
+        <f>D23+1</f>
+        <v>139</v>
+      </c>
+      <c r="D24" s="9">
+        <v>144</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
+        <f>D24+1</f>
+        <v>145</v>
+      </c>
+      <c r="D25" s="9">
+        <v>147</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="F26">
+        <f>SUM(F2:F25)</f>
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -178,11 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +507,7 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F4">
@@ -521,7 +521,7 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1">
@@ -601,7 +601,7 @@
       <c r="C10" s="1">
         <v>105</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F10">
@@ -616,7 +616,7 @@
       <c r="C11" s="3">
         <v>106</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="C12" s="1">
         <v>107</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="F12">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="C13" s="3">
         <v>109</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="15.75">
@@ -769,330 +769,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:7">
       <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>6</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="8"/>
+    <row r="4" spans="2:7">
+      <c r="B4" s="10"/>
       <c r="C4">
-        <f>D3+1</f>
+        <f t="shared" ref="C4:C23" si="0">D3+1</f>
         <v>7</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <f>D4+1</f>
+    <row r="5" spans="2:7">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>8</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
-        <f>D5+1</f>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>59</v>
       </c>
       <c r="F6">
         <v>51</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="8"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="10"/>
       <c r="C7">
-        <f>D6+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D7" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <f>D7+1</f>
+    <row r="8" spans="2:7">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>61</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
-        <f>D8+1</f>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D9" s="9">
-        <v>77</v>
+      <c r="D9" s="8">
+        <v>101</v>
       </c>
       <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="8"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="10"/>
       <c r="C10">
         <f>D9+1</f>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <f>D10+1</f>
-        <v>79</v>
-      </c>
-      <c r="D11" s="9">
-        <v>101</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="8">
+        <v>104</v>
       </c>
       <c r="F11">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10">
-        <v>83</v>
-      </c>
-      <c r="H11" s="10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="8"/>
-      <c r="C12">
-        <f>D11+1</f>
-        <v>102</v>
-      </c>
-      <c r="D12" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9">
-        <f>D12+1</f>
-        <v>104</v>
-      </c>
-      <c r="D13" s="9">
-        <v>104</v>
-      </c>
-      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="8" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9">
-        <f>D13+1</f>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D12" s="8">
         <v>110</v>
       </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10"/>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="D13" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D14" s="8">
+        <v>116</v>
+      </c>
       <c r="F14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10"/>
       <c r="C15">
-        <f>D14+1</f>
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>117</v>
       </c>
       <c r="D15" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9">
-        <f>D15+1</f>
-        <v>112</v>
-      </c>
-      <c r="D16" s="9">
-        <v>116</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="D16" s="8">
+        <v>118</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17">
-        <f>D16+1</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="D17" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9">
-        <f>D17+1</f>
-        <v>118</v>
-      </c>
-      <c r="D18" s="9">
-        <v>118</v>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D18" s="8">
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19">
-        <f>D18+1</f>
-        <v>119</v>
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="D19" s="3">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9">
-        <f>D19+1</f>
-        <v>120</v>
-      </c>
-      <c r="D20" s="9">
-        <v>121</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D20" s="5">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="8"/>
-      <c r="C21">
-        <f>D20+1</f>
-        <v>122</v>
-      </c>
-      <c r="D21" s="3">
-        <v>123</v>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D21" s="8">
+        <v>138</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f>D21+1</f>
-        <v>124</v>
-      </c>
-      <c r="D22" s="5">
-        <v>124</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D22" s="8">
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9">
-        <f>D22+1</f>
-        <v>125</v>
-      </c>
-      <c r="D23" s="9">
-        <v>138</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D23" s="8">
+        <v>147</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9">
-        <f>D23+1</f>
-        <v>139</v>
-      </c>
-      <c r="D24" s="9">
-        <v>144</v>
-      </c>
       <c r="F24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9">
-        <f>D24+1</f>
-        <v>145</v>
-      </c>
-      <c r="D25" s="9">
-        <v>147</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="F26">
-        <f>SUM(F2:F25)</f>
-        <v>135</v>
+        <f>SUM(F2:F23)</f>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -979,20 +979,20 @@
         <v>120</v>
       </c>
       <c r="D18" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="10"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -1001,10 +1001,10 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -1013,10 +1013,10 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D21" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21">
         <v>14</v>
@@ -1028,10 +1028,10 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D22" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1043,10 +1043,10 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1055,7 +1055,7 @@
     <row r="24" spans="2:6">
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -119,7 +119,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -183,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +779,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -910,56 +917,44 @@
         <v>105</v>
       </c>
       <c r="D12" s="8">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="10"/>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="D13" s="3">
-        <v>111</v>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="D13" s="11">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="10"/>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="D14" s="8">
-        <v>116</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="10"/>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="11">
+        <v>116</v>
+      </c>
+      <c r="D15" s="11">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="10"/>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>118</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1026,36 +1021,30 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>145</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="11">
         <v>148</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -186,10 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +514,7 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F4">
@@ -528,7 +528,7 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1">
@@ -608,7 +608,7 @@
       <c r="C10" s="1">
         <v>105</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F10">
@@ -623,7 +623,7 @@
       <c r="C11" s="3">
         <v>106</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="C12" s="1">
         <v>107</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="F12">
         <v>1</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="C13" s="3">
         <v>109</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="15.75">
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,7 +790,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8">
@@ -804,7 +804,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4">
         <f t="shared" ref="C4:C23" si="0">D3+1</f>
         <v>7</v>
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8">
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8">
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10">
         <f>D9+1</f>
         <v>102</v>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="8">
@@ -917,74 +917,74 @@
         <v>105</v>
       </c>
       <c r="D12" s="8">
+        <v>123</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D13" s="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10">
+        <v>116</v>
+      </c>
+      <c r="D15" s="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10">
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11">
+      <c r="D16" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="D13" s="11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11">
-        <v>116</v>
-      </c>
-      <c r="D15" s="11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="D16" s="11">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10"/>
-      <c r="C17">
-        <f t="shared" si="0"/>
+      <c r="D17" s="10">
         <v>119</v>
       </c>
-      <c r="D17" s="3">
-        <v>119</v>
-      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D18" s="8">
-        <v>122</v>
+      <c r="D18" s="10">
+        <v>123</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19" s="3">
         <v>124</v>
@@ -1021,11 +1021,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>145</v>
       </c>
     </row>
@@ -1033,18 +1033,18 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
     <row r="4" spans="2:7">
       <c r="B4" s="11"/>
       <c r="C4">
-        <f t="shared" ref="C4:C23" si="0">D3+1</f>
+        <f t="shared" ref="C4:C17" si="0">D3+1</f>
         <v>7</v>
       </c>
       <c r="D4">
@@ -925,126 +925,69 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="11"/>
-      <c r="C13" s="10">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="D13" s="10">
-        <v>117</v>
+      <c r="D13" s="3">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D14" s="5">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10">
-        <v>116</v>
-      </c>
-      <c r="D15" s="10">
-        <v>117</v>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D15" s="8">
+        <v>139</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="11"/>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="10">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D16" s="10">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="11"/>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="10">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D17" s="10">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="11"/>
-      <c r="C18" s="10">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D18" s="10">
-        <v>123</v>
-      </c>
       <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="11"/>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="D19" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="D20" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="D21" s="8">
-        <v>139</v>
-      </c>
-      <c r="F21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="D22" s="10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="D23" s="10">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="F24">
-        <f>SUM(F2:F23)</f>
-        <v>136</v>
+        <f>SUM(F2:F17)</f>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +995,7 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
     <row r="4" spans="2:7">
       <c r="B4" s="11"/>
       <c r="C4">
-        <f t="shared" ref="C4:C17" si="0">D3+1</f>
+        <f t="shared" ref="C4:C15" si="0">D3+1</f>
         <v>7</v>
       </c>
       <c r="D4">
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8">
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>51</v>
@@ -845,157 +845,131 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="11"/>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
-        <v>60</v>
-      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D7" s="8">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="11"/>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D8" s="8">
-        <v>61</v>
-      </c>
-      <c r="F8">
+      <c r="C8">
+        <f>D7+1</f>
+        <v>103</v>
+      </c>
+      <c r="D8" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="11"/>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D9" s="8">
+        <v>104</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="11" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D10" s="8">
+        <v>123</v>
+      </c>
+      <c r="F10">
         <v>19</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D9" s="8">
-        <v>101</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="11"/>
-      <c r="C10">
-        <f>D9+1</f>
-        <v>102</v>
-      </c>
-      <c r="D10" s="3">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="11"/>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="D11" s="8">
-        <v>104</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D11" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D12" s="8">
-        <v>123</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D12" s="5">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="11"/>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="D13" s="3">
-        <v>124</v>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="D13" s="8">
+        <v>140</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="D14" s="5">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="D14" s="10">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="D15" s="8">
-        <v>139</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="D15" s="10">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="D16" s="10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="10">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="D17" s="10">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="F18">
-        <f>SUM(F2:F17)</f>
+      <c r="F16">
+        <f>SUM(F2:F15)</f>
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G16"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
     <row r="4" spans="2:7">
       <c r="B4" s="11"/>
       <c r="C4">
-        <f t="shared" ref="C4:C15" si="0">D3+1</f>
+        <f t="shared" ref="C4:C13" si="0">D3+1</f>
         <v>7</v>
       </c>
       <c r="D4">
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="8">
@@ -853,123 +853,99 @@
         <v>62</v>
       </c>
       <c r="D7" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="11"/>
-      <c r="C8">
-        <f>D7+1</f>
-        <v>103</v>
-      </c>
-      <c r="D8" s="3">
-        <v>103</v>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D8" s="8">
+        <v>123</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="11"/>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="D9" s="8">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D9" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D10" s="8">
-        <v>123</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D10" s="5">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="11"/>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="D11" s="3">
-        <v>125</v>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="D11" s="8">
+        <v>140</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="D12" s="5">
-        <v>126</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="D12" s="10">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="D13" s="8">
-        <v>140</v>
-      </c>
-      <c r="F13">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="D13" s="10">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="D14" s="10">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="D15" s="10">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="F16">
-        <f>SUM(F2:F15)</f>
-        <v>133</v>
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>увод</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>прил 2</t>
+  </si>
+  <si>
+    <t>за оправяне</t>
   </si>
 </sst>
 </file>
@@ -776,20 +779,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:10">
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -802,8 +811,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="J3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="11"/>
       <c r="C4">
         <f t="shared" ref="C4:C13" si="0">D3+1</f>
@@ -812,8 +824,11 @@
       <c r="D4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="J4" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="11"/>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -825,8 +840,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="J5" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -843,8 +861,11 @@
       <c r="G6" s="9">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="J6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -859,8 +880,11 @@
         <v>43</v>
       </c>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="J7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
@@ -874,8 +898,11 @@
       <c r="F8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="J8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="11"/>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -884,8 +911,11 @@
       <c r="D9" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="J9" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -896,8 +926,11 @@
       <c r="D10" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="J10" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -912,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -924,7 +957,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -936,7 +969,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:10">
       <c r="F14">
         <f>SUM(F2:F13)</f>
         <v>134</v>

--- a/trunk/doc/готовност.xlsx
+++ b/trunk/doc/готовност.xlsx
@@ -782,7 +782,7 @@
   <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,10 +893,10 @@
         <v>105</v>
       </c>
       <c r="D8" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>61</v>
@@ -906,10 +906,10 @@
       <c r="B9" s="11"/>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D9" s="3">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J9" s="10">
         <v>62</v>
@@ -921,10 +921,10 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D10" s="5">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J10" s="10">
         <v>63</v>
@@ -936,10 +936,10 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D11" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F11">
         <v>14</v>
@@ -951,10 +951,10 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D12" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -963,16 +963,16 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D13" s="10">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="F14">
         <f>SUM(F2:F13)</f>
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
